--- a/quantum shorts 2025/database.xlsx
+++ b/quantum shorts 2025/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yizhu/Documents/yzhuj.github.io/quantum shorts 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDDC0811-8FEF-3D41-BBD9-E3C3EAA10C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EBE182-398B-3241-B7F7-AB8AC5175996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{175A7E09-1E58-A340-9876-7727DDF140DD}"/>
   </bookViews>
@@ -36,7 +36,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Text of factoid row 1</t>
+  </si>
+  <si>
+    <t>Links row 1</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Text of factoid row 2</t>
+  </si>
+  <si>
+    <t>Links row 2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,30 +435,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B1">
-        <v>1.2</v>
-      </c>
-      <c r="C1">
-        <v>1.3</v>
-      </c>
-      <c r="D1">
-        <v>1.4</v>
+        <v>1990</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.1</v>
-      </c>
-      <c r="B2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D2">
-        <v>2.4</v>
+        <v>2025</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
